--- a/output/fit_clients/fit_round_442.xlsx
+++ b/output/fit_clients/fit_round_442.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2294248358.125636</v>
+        <v>2516829106.923596</v>
       </c>
       <c r="F2" t="n">
-        <v>0.09552619893178577</v>
+        <v>0.1118557365854101</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0414785306960954</v>
+        <v>0.03178912575348068</v>
       </c>
       <c r="H2" t="b">
-        <v>0</v>
-      </c>
-      <c r="I2" t="n">
         <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>1147124214.27175</v>
       </c>
     </row>
     <row r="3">
@@ -530,22 +514,16 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2413956373.483962</v>
+        <v>1944438424.334335</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1799336837587416</v>
+        <v>0.1429754192289059</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03519627626418013</v>
+        <v>0.04450219835853298</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>9</v>
-      </c>
-      <c r="J3" t="n">
-        <v>1206978290.934693</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4434149163.805811</v>
+        <v>4342538352.029872</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1470555778786612</v>
+        <v>0.1443474004161475</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02325851047212361</v>
+        <v>0.02533800563944881</v>
       </c>
       <c r="H4" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" t="n">
-        <v>160</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2217074626.85783</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3309032435.535659</v>
+        <v>3317865096.292846</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07579679256562222</v>
+        <v>0.08605088689775539</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04544581814836653</v>
+        <v>0.03532776915020692</v>
       </c>
       <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="n">
-        <v>163</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1654516267.214172</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1841512305.536811</v>
+        <v>1814595041.295556</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1024866782996526</v>
+        <v>0.119791057437737</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03999768961867493</v>
+        <v>0.04172219881681877</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>83</v>
-      </c>
-      <c r="J6" t="n">
-        <v>920756199.5325119</v>
       </c>
     </row>
     <row r="7">
@@ -666,22 +626,16 @@
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2530354205.271574</v>
+        <v>2253000964.074294</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06370522941087918</v>
+        <v>0.09246326644662198</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03657579805457902</v>
+        <v>0.04610992053146044</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
-      </c>
-      <c r="I7" t="n">
-        <v>139</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1265177112.813337</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3439426883.189714</v>
+        <v>2733632420.013234</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1862369982593966</v>
+        <v>0.1827840052295201</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02162968195742549</v>
+        <v>0.02106587082063903</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>141</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1719713544.050204</v>
       </c>
     </row>
     <row r="9">
@@ -734,22 +682,16 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1685699881.060832</v>
+        <v>1862322914.02135</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1781344438559508</v>
+        <v>0.161350389641735</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02392714577317969</v>
+        <v>0.03695029285399776</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>842850010.7709105</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4778236277.1849</v>
+        <v>5296273102.315318</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1709236958592451</v>
+        <v>0.1716184681689198</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05040329635359644</v>
+        <v>0.03777068464092247</v>
       </c>
       <c r="H10" t="b">
         <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>186</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2389118220.740731</v>
       </c>
     </row>
     <row r="11">
@@ -802,22 +738,16 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3567376506.537306</v>
+        <v>3458982647.914474</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1726053547418929</v>
+        <v>0.1220690094150378</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04823840907436738</v>
+        <v>0.04818537764987777</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
-      </c>
-      <c r="I11" t="n">
-        <v>183</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1783688235.777643</v>
       </c>
     </row>
     <row r="12">
@@ -836,22 +766,16 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2897370286.949514</v>
+        <v>2464987373.854285</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1696591142960078</v>
+        <v>0.1885512542308156</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04037493459948485</v>
+        <v>0.04280695653442206</v>
       </c>
       <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>151</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1448685152.094094</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -864,28 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4014903233.501173</v>
+        <v>3247376623.402015</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09893209036806984</v>
+        <v>0.09681703565827234</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02711379203623913</v>
+        <v>0.02156944863067129</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>149</v>
-      </c>
-      <c r="J13" t="n">
-        <v>2007451670.942218</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2957578225.672601</v>
+        <v>3754459185.361919</v>
       </c>
       <c r="F14" t="n">
-        <v>0.184672878405879</v>
+        <v>0.1403168429740254</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02697620131680442</v>
+        <v>0.04214014500368668</v>
       </c>
       <c r="H14" t="b">
         <v>1</v>
-      </c>
-      <c r="I14" t="n">
-        <v>141</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1478789150.367259</v>
       </c>
     </row>
     <row r="15">
@@ -932,28 +844,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1757461733.730512</v>
+        <v>1492553694.066513</v>
       </c>
       <c r="F15" t="n">
-        <v>0.1024222335230445</v>
+        <v>0.0675432388575594</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04227744908684861</v>
+        <v>0.04386243504964572</v>
       </c>
       <c r="H15" t="b">
-        <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>878731010.7684194</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2075969274.185317</v>
+        <v>2406786416.581232</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09814556831527452</v>
+        <v>0.07319714049396359</v>
       </c>
       <c r="G16" t="n">
-        <v>0.042244805045172</v>
+        <v>0.03882087362306032</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>92</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1037984705.822893</v>
       </c>
     </row>
     <row r="17">
@@ -1000,28 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4219654331.648783</v>
+        <v>3995445692.773479</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1197335431423848</v>
+        <v>0.1525297922317605</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0515348735927712</v>
+        <v>0.05206448862090895</v>
       </c>
       <c r="H17" t="b">
         <v>1</v>
-      </c>
-      <c r="I17" t="n">
-        <v>131</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2109827189.576056</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3731756772.594341</v>
+        <v>3461554842.838459</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1275303159029054</v>
+        <v>0.1179429624938694</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02453485210234281</v>
+        <v>0.02915656049401429</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
-      </c>
-      <c r="I18" t="n">
-        <v>145</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1865878363.594339</v>
       </c>
     </row>
     <row r="19">
@@ -1068,28 +956,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>850581055.3459706</v>
+        <v>1126104815.338059</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1175721057804096</v>
+        <v>0.1864282758344471</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02309311968200524</v>
+        <v>0.02212126382630268</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>425290520.5940734</v>
       </c>
     </row>
     <row r="20">
@@ -1102,28 +984,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2753955811.32545</v>
+        <v>2647970834.786271</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1332635652119697</v>
+        <v>0.1362016447450183</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02193712887290959</v>
+        <v>0.02850289963038307</v>
       </c>
       <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="n">
-        <v>61</v>
-      </c>
-      <c r="J20" t="n">
-        <v>1376977851.730082</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1863344497.258617</v>
+        <v>2119947525.297272</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0860397280211907</v>
+        <v>0.09399591510882817</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04143733270184286</v>
+        <v>0.03195233137462021</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>34</v>
-      </c>
-      <c r="J21" t="n">
-        <v>931672297.67058</v>
       </c>
     </row>
     <row r="22">
@@ -1170,28 +1040,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2847951497.012246</v>
+        <v>3164908189.30087</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1213570644930291</v>
+        <v>0.09361838910275422</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04032568936143696</v>
+        <v>0.05045344655022946</v>
       </c>
       <c r="H22" t="b">
         <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>122</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1423975819.161927</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>946376037.1580093</v>
+        <v>1009642124.679733</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1761901775518865</v>
+        <v>0.1775152016511098</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04362637258731596</v>
+        <v>0.04456423678193273</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>473188097.8314848</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3358013719.632533</v>
+        <v>4035463846.238246</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1178496242835385</v>
+        <v>0.1275703598253808</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02302165224478027</v>
+        <v>0.03256423162996595</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>130</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1679006870.985451</v>
       </c>
     </row>
     <row r="25">
@@ -1278,22 +1130,16 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1005594215.339211</v>
+        <v>1116546220.261251</v>
       </c>
       <c r="F25" t="n">
-        <v>0.09013114470962375</v>
+        <v>0.08826415325157327</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0288527793466618</v>
+        <v>0.01949596661909398</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>502797170.4040961</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1216337441.939385</v>
+        <v>1318433851.670736</v>
       </c>
       <c r="F26" t="n">
-        <v>0.08985666428298054</v>
+        <v>0.1147114216884386</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03885949785979859</v>
+        <v>0.02780268706750308</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>608168745.9923452</v>
       </c>
     </row>
     <row r="27">
@@ -1340,28 +1180,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4197460251.193789</v>
+        <v>3867820515.159314</v>
       </c>
       <c r="F27" t="n">
-        <v>0.102490050650275</v>
+        <v>0.1046751643344635</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02716981053678968</v>
+        <v>0.01647553585253913</v>
       </c>
       <c r="H27" t="b">
         <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>102</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2098730125.959398</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3852870599.628324</v>
+        <v>2635083823.624297</v>
       </c>
       <c r="F28" t="n">
-        <v>0.09290071978864047</v>
+        <v>0.1047873552469466</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03785032453449231</v>
+        <v>0.03171918683363349</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
-      </c>
-      <c r="I28" t="n">
-        <v>142</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1926435385.083323</v>
       </c>
     </row>
     <row r="29">
@@ -1408,28 +1236,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>5895899258.296374</v>
+        <v>4941372712.220152</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09777247261058741</v>
+        <v>0.1427152972547126</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03577867609144296</v>
+        <v>0.0458802312622056</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>195</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2947949514.635246</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1728971403.58733</v>
+        <v>2339965692.699425</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08437247859487361</v>
+        <v>0.09714044505309145</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02538645249189724</v>
+        <v>0.02823436111144447</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>864485708.3775591</v>
       </c>
     </row>
     <row r="31">
@@ -1476,28 +1292,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1356933962.976088</v>
+        <v>1486343880.578034</v>
       </c>
       <c r="F31" t="n">
-        <v>0.07830801631640531</v>
+        <v>0.08105577746973659</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03277888908983419</v>
+        <v>0.04395265021796631</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>678466896.0228457</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1879278031.653043</v>
+        <v>1654584483.397738</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1198691942713699</v>
+        <v>0.1026913335863647</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02507186011301318</v>
+        <v>0.03193965153461043</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>939639162.7584283</v>
       </c>
     </row>
     <row r="33">
@@ -1550,22 +1354,16 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2716741826.731574</v>
+        <v>2609302743.418564</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1886837061045484</v>
+        <v>0.1469600213183327</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0372931186242324</v>
+        <v>0.0522116473249938</v>
       </c>
       <c r="H33" t="b">
-        <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>136</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1358370933.119058</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1427018678.162187</v>
+        <v>1302402149.793447</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1143318146114832</v>
+        <v>0.1027832464900289</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01850223106634784</v>
+        <v>0.01897733213152681</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>713509306.894846</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1081676949.516571</v>
+        <v>1345658998.281665</v>
       </c>
       <c r="F35" t="n">
-        <v>0.09265972823604271</v>
+        <v>0.07544473275178532</v>
       </c>
       <c r="G35" t="n">
-        <v>0.02810745722365948</v>
+        <v>0.03715785107304914</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>540838475.4404676</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2735778503.845491</v>
+        <v>2820043230.642241</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1513140581192004</v>
+        <v>0.1624535092623574</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02013630834667259</v>
+        <v>0.02490966262148675</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>112</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1367889255.026694</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1772356852.251683</v>
+        <v>2800373970.773467</v>
       </c>
       <c r="F37" t="n">
-        <v>0.08869777355490566</v>
+        <v>0.09035804456122364</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03821067156878463</v>
+        <v>0.03751170487919572</v>
       </c>
       <c r="H37" t="b">
-        <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>119</v>
-      </c>
-      <c r="J37" t="n">
-        <v>886178422.1475468</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1377438711.483946</v>
+        <v>1419969952.283981</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1177889229499432</v>
+        <v>0.09122505089025169</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03621463219167845</v>
+        <v>0.03045663314177035</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>688719422.3370446</v>
       </c>
     </row>
     <row r="39">
@@ -1754,22 +1522,16 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1471088916.396468</v>
+        <v>1701182571.339176</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1931102917427009</v>
+        <v>0.1915980037225985</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03013170144835816</v>
+        <v>0.03058813368998496</v>
       </c>
       <c r="H39" t="b">
-        <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>735544533.0328404</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40">
@@ -1782,28 +1544,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1436375481.387463</v>
+        <v>1581010366.239113</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1582867596201945</v>
+        <v>0.1423977090414801</v>
       </c>
       <c r="G40" t="n">
-        <v>0.03946324660058642</v>
+        <v>0.05229062429541692</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>718187722.8318753</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2648525237.723992</v>
+        <v>2025641084.891248</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1501696102690863</v>
+        <v>0.1390454127302432</v>
       </c>
       <c r="G41" t="n">
-        <v>0.02958976739223793</v>
+        <v>0.04276875059191947</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
-      </c>
-      <c r="I41" t="n">
-        <v>109</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1324262629.58418</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3204592872.961099</v>
+        <v>4254364520.641896</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1255947606402696</v>
+        <v>0.09033123004369156</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04318316684628948</v>
+        <v>0.03177452974858475</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
-      <c r="I42" t="n">
-        <v>147</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1602296411.01652</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43">
@@ -1884,28 +1628,22 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2081809095.689913</v>
+        <v>1861214195.526074</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1505826546338535</v>
+        <v>0.1555967433409752</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02432198849463237</v>
+        <v>0.02482512857138911</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
-      </c>
-      <c r="I43" t="n">
-        <v>153</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1040904638.5684</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1758778672.755814</v>
+        <v>1546923042.419473</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09565987629987763</v>
+        <v>0.09864899331091001</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02482786219654665</v>
+        <v>0.02827825385673036</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>879389394.5950301</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>1853910743.194258</v>
+        <v>2186393537.230117</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1501968268168321</v>
+        <v>0.1889380780649198</v>
       </c>
       <c r="G45" t="n">
-        <v>0.03404393288731897</v>
+        <v>0.04031745306436956</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>926955347.798516</v>
       </c>
     </row>
     <row r="46">
@@ -1986,28 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4526215264.484021</v>
+        <v>3683873957.467306</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1451519601338892</v>
+        <v>0.1716442604619312</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0392300896858955</v>
+        <v>0.06116707614183221</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
-      </c>
-      <c r="I46" t="n">
-        <v>157</v>
-      </c>
-      <c r="J46" t="n">
-        <v>2263107631.93189</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
@@ -2026,22 +1746,16 @@
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3204159358.417481</v>
+        <v>3508574797.201844</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1956098298659351</v>
+        <v>0.1875847062554348</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04180141456706322</v>
+        <v>0.04604973932554125</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
-      </c>
-      <c r="I47" t="n">
-        <v>123</v>
-      </c>
-      <c r="J47" t="n">
-        <v>1602079633.308506</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3465777010.369238</v>
+        <v>3749394960.5886</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07656428725352202</v>
+        <v>0.106961178595303</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0289127854131018</v>
+        <v>0.03060820009685651</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
-      </c>
-      <c r="I48" t="n">
-        <v>146</v>
-      </c>
-      <c r="J48" t="n">
-        <v>1732888570.624137</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1888107476.27192</v>
+        <v>1971689598.223653</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1242827104101797</v>
+        <v>0.1371955061342548</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04369074833535045</v>
+        <v>0.03316027173897611</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>944053709.8273365</v>
       </c>
     </row>
     <row r="50">
@@ -2122,28 +1824,22 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3681377448.15077</v>
+        <v>3603269369.651392</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1404909988790138</v>
+        <v>0.1162105992232326</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04151224042089571</v>
+        <v>0.05170698192294086</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
-      </c>
-      <c r="I50" t="n">
-        <v>151</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1840688735.436408</v>
       </c>
     </row>
     <row r="51">
@@ -2156,28 +1852,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1395694382.971911</v>
+        <v>1449795226.883451</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1574988693965819</v>
+        <v>0.1227619570991922</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04033126691070302</v>
+        <v>0.0471665132239321</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>697847211.3406845</v>
       </c>
     </row>
     <row r="52">
@@ -2196,22 +1886,16 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4762702532.570305</v>
+        <v>3591658991.710675</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1147344864307325</v>
+        <v>0.09072814420123258</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04996902167314701</v>
+        <v>0.04971159063178316</v>
       </c>
       <c r="H52" t="b">
-        <v>1</v>
-      </c>
-      <c r="I52" t="n">
-        <v>182</v>
-      </c>
-      <c r="J52" t="n">
-        <v>2381351277.892375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3689189283.195215</v>
+        <v>2685810143.002641</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1306759197362435</v>
+        <v>0.2047402363241398</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0256794590541025</v>
+        <v>0.02369505187901309</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>128</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1844594626.492085</v>
       </c>
     </row>
     <row r="54">
@@ -2264,22 +1942,16 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4520996681.080296</v>
+        <v>3009013956.515639</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1594173114527544</v>
+        <v>0.109553764061547</v>
       </c>
       <c r="G54" t="n">
-        <v>0.05007517963261621</v>
+        <v>0.04844983599518259</v>
       </c>
       <c r="H54" t="b">
         <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>143</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2260498445.54327</v>
       </c>
     </row>
     <row r="55">
@@ -2292,28 +1964,22 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3708840695.95971</v>
+        <v>3376204119.158601</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1781598358347095</v>
+        <v>0.1413396172480499</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03047034475183375</v>
+        <v>0.02344991510065341</v>
       </c>
       <c r="H55" t="b">
-        <v>0</v>
-      </c>
-      <c r="I55" t="n">
-        <v>114</v>
-      </c>
-      <c r="J55" t="n">
-        <v>1854420310.086186</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1859811600.667552</v>
+        <v>1645385912.557468</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1215627009871841</v>
+        <v>0.10867377662454</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05726139064415626</v>
+        <v>0.04688326553828882</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>929905789.3118261</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3770279781.049747</v>
+        <v>4294528970.418801</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1188682985741545</v>
+        <v>0.1687299145662399</v>
       </c>
       <c r="G57" t="n">
-        <v>0.01961967490824562</v>
+        <v>0.02205278677833369</v>
       </c>
       <c r="H57" t="b">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>140</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1885139959.622818</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
@@ -2394,28 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1612678423.144347</v>
+        <v>1161684120.689393</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1778547909140507</v>
+        <v>0.1802042581723269</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03627888547594399</v>
+        <v>0.03385131402004189</v>
       </c>
       <c r="H58" t="b">
-        <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>806339232.437588</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3785557903.888993</v>
+        <v>4343165788.321461</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1025535189857555</v>
+        <v>0.09490383932262092</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04942720790783531</v>
+        <v>0.03334427016060869</v>
       </c>
       <c r="H59" t="b">
-        <v>1</v>
-      </c>
-      <c r="I59" t="n">
-        <v>120</v>
-      </c>
-      <c r="J59" t="n">
-        <v>1892778938.252769</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2890605909.064575</v>
+        <v>3669804680.849629</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1364959661763545</v>
+        <v>0.1541791103780385</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02711634987419277</v>
+        <v>0.02978748190928617</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>137</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1445303013.428741</v>
       </c>
     </row>
     <row r="61">
@@ -2496,28 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2700686799.251363</v>
+        <v>3006180074.266492</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1661943807661585</v>
+        <v>0.1670380692923127</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02786455804501956</v>
+        <v>0.02287026547403641</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>152</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1350343408.337908</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1330430268.075135</v>
+        <v>1435522278.120406</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1510285972916802</v>
+        <v>0.1436624002927985</v>
       </c>
       <c r="G62" t="n">
-        <v>0.0408159997973095</v>
+        <v>0.04899878942344024</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>665215091.6474845</v>
       </c>
     </row>
     <row r="63">
@@ -2564,28 +2188,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4899676572.962908</v>
+        <v>3601422828.442542</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08436813697048744</v>
+        <v>0.07031851820086035</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03228849153698938</v>
+        <v>0.03269864861652597</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
-      </c>
-      <c r="I63" t="n">
-        <v>125</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2449838308.728566</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
@@ -2604,22 +2222,16 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3348581022.655221</v>
+        <v>4550854380.327581</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1263054021434224</v>
+        <v>0.1670691081990619</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03358003415299572</v>
+        <v>0.03318514116394163</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>138</v>
-      </c>
-      <c r="J64" t="n">
-        <v>1674290501.388419</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2632,28 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5615229966.526424</v>
+        <v>3811899904.722788</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1510242776328347</v>
+        <v>0.1216336898379016</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02917272987849797</v>
+        <v>0.03038576561871068</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
-      </c>
-      <c r="I65" t="n">
-        <v>158</v>
-      </c>
-      <c r="J65" t="n">
-        <v>2807614905.481848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
@@ -2666,28 +2272,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4618457279.086704</v>
+        <v>4906115184.769146</v>
       </c>
       <c r="F66" t="n">
-        <v>0.146715395077346</v>
+        <v>0.1539781159240879</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03366212287013226</v>
+        <v>0.04257591153916745</v>
       </c>
       <c r="H66" t="b">
         <v>0</v>
-      </c>
-      <c r="I66" t="n">
-        <v>133</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2309228646.262002</v>
       </c>
     </row>
     <row r="67">
@@ -2706,22 +2306,16 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2656552075.7325</v>
+        <v>2176533463.768041</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08501703990994035</v>
+        <v>0.09890087504906493</v>
       </c>
       <c r="G67" t="n">
-        <v>0.03635695420182763</v>
+        <v>0.04906593790836868</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>140</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1328276085.196105</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5627475456.496508</v>
+        <v>4753643011.021714</v>
       </c>
       <c r="F68" t="n">
-        <v>0.126734015582594</v>
+        <v>0.157589934168908</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04700133750342664</v>
+        <v>0.0507939537538643</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>142</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2813737822.677098</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2255643197.419186</v>
+        <v>1578821733.277809</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1355110649475651</v>
+        <v>0.1374403158175086</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04983071739726246</v>
+        <v>0.0366821531919252</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>1</v>
-      </c>
-      <c r="J69" t="n">
-        <v>1127821636.73828</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3171511638.480939</v>
+        <v>3494939548.800491</v>
       </c>
       <c r="F70" t="n">
-        <v>0.09138480760435987</v>
+        <v>0.1014321813219706</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04160814832685924</v>
+        <v>0.0448334371467771</v>
       </c>
       <c r="H70" t="b">
-        <v>1</v>
-      </c>
-      <c r="I70" t="n">
-        <v>126</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1585755807.388305</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5468510478.440736</v>
+        <v>4159751306.147065</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1789577335199479</v>
+        <v>0.1832408202994794</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02072640799938669</v>
+        <v>0.0284703182206075</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>161</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2734255379.923291</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2010431058.236235</v>
+        <v>2070762102.157025</v>
       </c>
       <c r="F72" t="n">
-        <v>0.0846951407742923</v>
+        <v>0.08784729263721809</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03285246716628588</v>
+        <v>0.04132382784585795</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>1005215473.796058</v>
       </c>
     </row>
     <row r="73">
@@ -2910,22 +2474,16 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3247555046.973494</v>
+        <v>2226489255.574617</v>
       </c>
       <c r="F73" t="n">
-        <v>0.08970419182442402</v>
+        <v>0.06864943147493519</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04121304160633485</v>
+        <v>0.05055980220625459</v>
       </c>
       <c r="H73" t="b">
-        <v>1</v>
-      </c>
-      <c r="I73" t="n">
-        <v>167</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1623777496.817789</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
@@ -2938,28 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3892281122.320788</v>
+        <v>3752532578.362127</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1813548492507432</v>
+        <v>0.1809720458416947</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02897961625088483</v>
+        <v>0.03520483301595864</v>
       </c>
       <c r="H74" t="b">
-        <v>0</v>
-      </c>
-      <c r="I74" t="n">
-        <v>151</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1946140549.458953</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1728823925.073097</v>
+        <v>1967385872.131522</v>
       </c>
       <c r="F75" t="n">
-        <v>0.133108746604255</v>
+        <v>0.1128589654446274</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02337105348237135</v>
+        <v>0.02492145891776609</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>1</v>
-      </c>
-      <c r="J75" t="n">
-        <v>864411952.1608894</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4357057727.219273</v>
+        <v>3495648635.02948</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09589000868367685</v>
+        <v>0.08886840543246016</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02275667250958623</v>
+        <v>0.03301947955921456</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>109</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2178528863.292045</v>
       </c>
     </row>
     <row r="77">
@@ -3040,28 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2237967062.955343</v>
+        <v>1647364575.271127</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1636372288232885</v>
+        <v>0.160639631809128</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03168976697801132</v>
+        <v>0.02470634251149859</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1118983628.1608</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4354943714.405153</v>
+        <v>3851522128.805088</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1277306433640535</v>
+        <v>0.1142928949100444</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03729970005606748</v>
+        <v>0.0519880010272161</v>
       </c>
       <c r="H78" t="b">
         <v>0</v>
-      </c>
-      <c r="I78" t="n">
-        <v>154</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2177471797.553392</v>
       </c>
     </row>
     <row r="79">
@@ -3108,28 +2636,22 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1737827308.537579</v>
+        <v>1283039758.290324</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1649610547049579</v>
+        <v>0.1203686346311544</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03107004856018993</v>
+        <v>0.03494132317885902</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>868913730.1069726</v>
       </c>
     </row>
     <row r="80">
@@ -3148,22 +2670,16 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4462511774.43088</v>
+        <v>4419734261.425598</v>
       </c>
       <c r="F80" t="n">
-        <v>0.09979529919883547</v>
+        <v>0.08694846171828355</v>
       </c>
       <c r="G80" t="n">
-        <v>0.03095803057058933</v>
+        <v>0.02593397321000149</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>94</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2231255909.707439</v>
       </c>
     </row>
     <row r="81">
@@ -3176,28 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>3592181774.768119</v>
+        <v>4633764332.626619</v>
       </c>
       <c r="F81" t="n">
-        <v>0.08529964449903837</v>
+        <v>0.1078113179393212</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02389359303325041</v>
+        <v>0.0249352493938074</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>99</v>
-      </c>
-      <c r="J81" t="n">
-        <v>1796090835.471132</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82">
@@ -3210,28 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>5419551116.687517</v>
+        <v>4522327574.769217</v>
       </c>
       <c r="F82" t="n">
-        <v>0.2035272605852983</v>
+        <v>0.175946960458145</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02532760695145019</v>
+        <v>0.02147680543713862</v>
       </c>
       <c r="H82" t="b">
         <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>154</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2709775518.908967</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1904870602.312565</v>
+        <v>2272522067.229385</v>
       </c>
       <c r="F83" t="n">
-        <v>0.122198384079294</v>
+        <v>0.1023255198017804</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03217226502079303</v>
+        <v>0.02738018031808589</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
-      </c>
-      <c r="I83" t="n">
-        <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>952435274.6476694</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1686220199.318396</v>
+        <v>1958454017.025169</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09197049291538358</v>
+        <v>0.09126147911549766</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03766926555411258</v>
+        <v>0.03686820489160889</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>6</v>
-      </c>
-      <c r="J84" t="n">
-        <v>843110150.6080737</v>
       </c>
     </row>
     <row r="85">
@@ -3312,28 +2804,22 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3022893993.760228</v>
+        <v>3188414337.600155</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1570034134681851</v>
+        <v>0.1220222360844852</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0439753457246862</v>
+        <v>0.05135746326411983</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
-      </c>
-      <c r="I85" t="n">
-        <v>167</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1511447059.605065</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2741439196.782781</v>
+        <v>2586291275.548357</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1203092117615951</v>
+        <v>0.1511426264152738</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02040781354821252</v>
+        <v>0.01846370091582791</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>55</v>
-      </c>
-      <c r="J86" t="n">
-        <v>1370719729.128366</v>
       </c>
     </row>
     <row r="87">
@@ -3386,22 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1000826180.056089</v>
+        <v>1304823361.352027</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1558639775952311</v>
+        <v>0.1402020214445745</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03077625702107472</v>
+        <v>0.03029028531452787</v>
       </c>
       <c r="H87" t="b">
-        <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>500413094.5808064</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3033397759.315828</v>
+        <v>3421222686.45125</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1257261935343041</v>
+        <v>0.1631246397852036</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03318576880166323</v>
+        <v>0.03901910969518237</v>
       </c>
       <c r="H88" t="b">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>175</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1516698913.423821</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3440398934.103793</v>
+        <v>2503014323.794612</v>
       </c>
       <c r="F89" t="n">
-        <v>0.124132519099284</v>
+        <v>0.1362705849977265</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03623112067914766</v>
+        <v>0.0285513174348369</v>
       </c>
       <c r="H89" t="b">
         <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>149</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1720199472.889868</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2125415044.915899</v>
+        <v>1719625521.423199</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1348844532705706</v>
+        <v>0.1274172938522692</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04525450619228309</v>
+        <v>0.04816409608428302</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>1062707615.711333</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1295605678.679838</v>
+        <v>1800011720.532743</v>
       </c>
       <c r="F91" t="n">
-        <v>0.144808741463861</v>
+        <v>0.1726709676242545</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05595730255502757</v>
+        <v>0.04516457660153826</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>647802905.5473332</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2998310342.920444</v>
+        <v>2918770636.498697</v>
       </c>
       <c r="F92" t="n">
-        <v>0.09271802115128817</v>
+        <v>0.1082399197208103</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03677178047114125</v>
+        <v>0.03737014106985301</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>122</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1499155193.084633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3584,28 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4005422716.762273</v>
+        <v>3938322093.660982</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1195281650571342</v>
+        <v>0.09215716770403831</v>
       </c>
       <c r="G93" t="n">
-        <v>0.04489078356858107</v>
+        <v>0.05114172118565059</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>132</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2002711358.67664</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2482912969.403411</v>
+        <v>2482334290.649932</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1505565553624567</v>
+        <v>0.1284906954112184</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03310207710721502</v>
+        <v>0.02667667576072</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>2</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1241456545.911723</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2083048646.604748</v>
+        <v>2957040112.62144</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1001819702062605</v>
+        <v>0.08905903000002559</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04970005781110361</v>
+        <v>0.0484078881064185</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>108</v>
-      </c>
-      <c r="J95" t="n">
-        <v>1041524389.716656</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1796983767.709641</v>
+        <v>1864559040.62903</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1036919974454696</v>
+        <v>0.1005205533263025</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03027583629856994</v>
+        <v>0.04697838750337093</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>898491892.5177219</v>
       </c>
     </row>
     <row r="97">
@@ -3720,28 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4785791494.184457</v>
+        <v>4051990297.252463</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1348352104085027</v>
+        <v>0.1438058824419761</v>
       </c>
       <c r="G97" t="n">
-        <v>0.01842673257636642</v>
+        <v>0.02010641506745826</v>
       </c>
       <c r="H97" t="b">
         <v>0</v>
-      </c>
-      <c r="I97" t="n">
-        <v>142</v>
-      </c>
-      <c r="J97" t="n">
-        <v>2392895866.695995</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2941664320.527104</v>
+        <v>2879647944.610834</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1022204640079065</v>
+        <v>0.1227925759844533</v>
       </c>
       <c r="G98" t="n">
-        <v>0.0281953365466666</v>
+        <v>0.030809604902281</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>121</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1470832141.01234</v>
       </c>
     </row>
     <row r="99">
@@ -3788,28 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2230590726.557081</v>
+        <v>3364070441.783031</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1297934956685905</v>
+        <v>0.1052470464640592</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03197910767852471</v>
+        <v>0.03018078811732359</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>139</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1115295293.475026</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4788830839.360538</v>
+        <v>4152058525.545141</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1571435109997539</v>
+        <v>0.127590727909601</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02500781581395374</v>
+        <v>0.02044240286188206</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>138</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2394415553.347106</v>
       </c>
     </row>
     <row r="101">
@@ -3862,22 +3258,16 @@
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2300899682.775848</v>
+        <v>2888149162.216574</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1670212534436699</v>
+        <v>0.1710263442495155</v>
       </c>
       <c r="G101" t="n">
-        <v>0.03760466758823387</v>
+        <v>0.05850076284161561</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>181</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1150449838.117814</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_442.xlsx
+++ b/output/fit_clients/fit_round_442.xlsx
@@ -486,16 +486,16 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>2516829106.923596</v>
+        <v>1810168594.597997</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1118557365854101</v>
+        <v>0.07965848054695431</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03178912575348068</v>
+        <v>0.02958585663949819</v>
       </c>
       <c r="H2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -508,19 +508,19 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1944438424.334335</v>
+        <v>2526873790.154228</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1429754192289059</v>
+        <v>0.1713695315465951</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04450219835853298</v>
+        <v>0.03257488685482003</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -536,22 +536,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4342538352.029872</v>
+        <v>4449543713.210291</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1443474004161475</v>
+        <v>0.141618608672777</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02533800563944881</v>
+        <v>0.03640450510982056</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3317865096.292846</v>
+        <v>3018256601.23386</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08605088689775539</v>
+        <v>0.08465767034266028</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03532776915020692</v>
+        <v>0.04293628794315012</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,19 +592,19 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>1814595041.295556</v>
+        <v>2291716251.957829</v>
       </c>
       <c r="F6" t="n">
-        <v>0.119791057437737</v>
+        <v>0.1035833803328281</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04172219881681877</v>
+        <v>0.04068467669503255</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2253000964.074294</v>
+        <v>2350030050.542126</v>
       </c>
       <c r="F7" t="n">
-        <v>0.09246326644662198</v>
+        <v>0.06771719192098098</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04610992053146044</v>
+        <v>0.03747514169869719</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,13 +654,13 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2733632420.013234</v>
+        <v>3566064868.592127</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1827840052295201</v>
+        <v>0.1598362225504861</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02106587082063903</v>
+        <v>0.02887132122567344</v>
       </c>
       <c r="H8" t="b">
         <v>0</v>
@@ -676,19 +676,19 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1862322914.02135</v>
+        <v>1862686757.875624</v>
       </c>
       <c r="F9" t="n">
-        <v>0.161350389641735</v>
+        <v>0.1835117366639967</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03695029285399776</v>
+        <v>0.02338688996300601</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>5296273102.315318</v>
+        <v>4767654763.993394</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1716184681689198</v>
+        <v>0.1659498174018702</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03777068464092247</v>
+        <v>0.05018897478763719</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -738,13 +738,13 @@
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3458982647.914474</v>
+        <v>3029337592.493175</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1220690094150378</v>
+        <v>0.1240333771102855</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04818537764987777</v>
+        <v>0.03938654591296568</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2464987373.854285</v>
+        <v>2994569734.697887</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1885512542308156</v>
+        <v>0.1805069968012026</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04280695653442206</v>
+        <v>0.04373741549983803</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -794,16 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3247376623.402015</v>
+        <v>4387577286.904985</v>
       </c>
       <c r="F13" t="n">
-        <v>0.09681703565827234</v>
+        <v>0.07586513880424701</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02156944863067129</v>
+        <v>0.0245332491284058</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,22 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3754459185.361919</v>
+        <v>3465581439.630077</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1403168429740254</v>
+        <v>0.1228399596005466</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04214014500368668</v>
+        <v>0.02931225840046116</v>
       </c>
       <c r="H14" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -850,16 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1492553694.066513</v>
+        <v>1790527270.735437</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0675432388575594</v>
+        <v>0.06960205174732434</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04386243504964572</v>
+        <v>0.03398728485466689</v>
       </c>
       <c r="H15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2406786416.581232</v>
+        <v>2344654741.30184</v>
       </c>
       <c r="F16" t="n">
-        <v>0.07319714049396359</v>
+        <v>0.0797615756731781</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03882087362306032</v>
+        <v>0.05079699482417652</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3995445692.773479</v>
+        <v>3973762000.585599</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1525297922317605</v>
+        <v>0.174804062126697</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05206448862090895</v>
+        <v>0.04926940017736506</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,19 +928,19 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3461554842.838459</v>
+        <v>3832301278.760329</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1179429624938694</v>
+        <v>0.1125890252527603</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02915656049401429</v>
+        <v>0.0343833978840348</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
@@ -956,19 +956,19 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1126104815.338059</v>
+        <v>1014465270.52441</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1864282758344471</v>
+        <v>0.1333783622718215</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02212126382630268</v>
+        <v>0.01699543650795953</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2647970834.786271</v>
+        <v>2710078124.810151</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1362016447450183</v>
+        <v>0.1438945815555691</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02850289963038307</v>
+        <v>0.02822712001976228</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1018,13 +1018,13 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2119947525.297272</v>
+        <v>1769510719.517603</v>
       </c>
       <c r="F21" t="n">
-        <v>0.09399591510882817</v>
+        <v>0.06890842962314508</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03195233137462021</v>
+        <v>0.03311487577097872</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
@@ -1046,16 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3164908189.30087</v>
+        <v>2663753027.305209</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09361838910275422</v>
+        <v>0.1097314614984694</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05045344655022946</v>
+        <v>0.05648712361102312</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1009642124.679733</v>
+        <v>1242458806.102761</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1775152016511098</v>
+        <v>0.1804843624873033</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04456423678193273</v>
+        <v>0.04978732821917289</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4035463846.238246</v>
+        <v>2812279364.387692</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1275703598253808</v>
+        <v>0.1363978684036934</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03256423162996595</v>
+        <v>0.03258612054844853</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1116546220.261251</v>
+        <v>1165426640.924877</v>
       </c>
       <c r="F25" t="n">
-        <v>0.08826415325157327</v>
+        <v>0.1020846736808388</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01949596661909398</v>
+        <v>0.01915215641941383</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1152,19 +1152,19 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1318433851.670736</v>
+        <v>1421490725.432958</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1147114216884386</v>
+        <v>0.09558273893019723</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02780268706750308</v>
+        <v>0.03172785883760133</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1186,16 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3867820515.159314</v>
+        <v>3572822789.854214</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1046751643344635</v>
+        <v>0.141559505857456</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01647553585253913</v>
+        <v>0.02298651992021273</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2635083823.624297</v>
+        <v>2848034286.472218</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1047873552469466</v>
+        <v>0.1180134750891382</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03171918683363349</v>
+        <v>0.03781877952165241</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4941372712.220152</v>
+        <v>4945940442.323769</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1427152972547126</v>
+        <v>0.1088636527624339</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0458802312622056</v>
+        <v>0.02986652278046377</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2339965692.699425</v>
+        <v>1792340861.742968</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09714044505309145</v>
+        <v>0.1081622389602963</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02823436111144447</v>
+        <v>0.02780933726321572</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1292,19 +1292,19 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D31" t="n">
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1486343880.578034</v>
+        <v>1089308492.962346</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08105577746973659</v>
+        <v>0.08984050884263022</v>
       </c>
       <c r="G31" t="n">
-        <v>0.04395265021796631</v>
+        <v>0.03806134554679944</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1654584483.397738</v>
+        <v>1746601891.065447</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1026913335863647</v>
+        <v>0.1021155089743042</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03193965153461043</v>
+        <v>0.02461996781975781</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,22 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2609302743.418564</v>
+        <v>2981767740.957881</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1469600213183327</v>
+        <v>0.1784630483074962</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0522116473249938</v>
+        <v>0.03688635959703739</v>
       </c>
       <c r="H33" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1302402149.793447</v>
+        <v>1526075659.134542</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1027832464900289</v>
+        <v>0.1027578141439143</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01897733213152681</v>
+        <v>0.02725311153626725</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1345658998.281665</v>
+        <v>1041452627.229307</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07544473275178532</v>
+        <v>0.1053807216130234</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03715785107304914</v>
+        <v>0.03186859254442875</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2820043230.642241</v>
+        <v>3224835400.640965</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1624535092623574</v>
+        <v>0.168303549864991</v>
       </c>
       <c r="G36" t="n">
-        <v>0.02490966262148675</v>
+        <v>0.01916649059534245</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,22 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2800373970.773467</v>
+        <v>1906483253.617874</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09035804456122364</v>
+        <v>0.1068650066146288</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03751170487919572</v>
+        <v>0.02623613459493486</v>
       </c>
       <c r="H37" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -1488,19 +1488,19 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1419969952.283981</v>
+        <v>1550364665.670754</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09122505089025169</v>
+        <v>0.08854573734758657</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03045663314177035</v>
+        <v>0.03149246924170591</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
@@ -1516,22 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1701182571.339176</v>
+        <v>1504672012.897317</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1915980037225985</v>
+        <v>0.1704029381342829</v>
       </c>
       <c r="G39" t="n">
-        <v>0.03058813368998496</v>
+        <v>0.02033302503540691</v>
       </c>
       <c r="H39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1581010366.239113</v>
+        <v>1300076600.900357</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1423977090414801</v>
+        <v>0.1603940492882787</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05229062429541692</v>
+        <v>0.05257698979652616</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2025641084.891248</v>
+        <v>2594989937.043005</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1390454127302432</v>
+        <v>0.1578937782048804</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04276875059191947</v>
+        <v>0.03153213093601426</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,22 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>4254364520.641896</v>
+        <v>3130115649.598289</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09033123004369156</v>
+        <v>0.1038793128171544</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03177452974858475</v>
+        <v>0.03611525740155739</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1628,19 +1628,19 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>1861214195.526074</v>
+        <v>2868507233.208527</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1555967433409752</v>
+        <v>0.160910313035208</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02482512857138911</v>
+        <v>0.02334625358809536</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1656,19 +1656,19 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1546923042.419473</v>
+        <v>1440541245.566313</v>
       </c>
       <c r="F44" t="n">
-        <v>0.09864899331091001</v>
+        <v>0.07158307291740132</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02827825385673036</v>
+        <v>0.0262032491223202</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1684,19 +1684,19 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2186393537.230117</v>
+        <v>2523427089.488587</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1889380780649198</v>
+        <v>0.1420799250539025</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04031745306436956</v>
+        <v>0.05352767422901285</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
@@ -1712,22 +1712,22 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3683873957.467306</v>
+        <v>4583998014.574155</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1716442604619312</v>
+        <v>0.1645008394978584</v>
       </c>
       <c r="G46" t="n">
-        <v>0.06116707614183221</v>
+        <v>0.05785409410967041</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3508574797.201844</v>
+        <v>3595830976.072058</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1875847062554348</v>
+        <v>0.1287290757838911</v>
       </c>
       <c r="G47" t="n">
-        <v>0.04604973932554125</v>
+        <v>0.03935683921410879</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1768,19 +1768,19 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3749394960.5886</v>
+        <v>3976940914.652232</v>
       </c>
       <c r="F48" t="n">
-        <v>0.106961178595303</v>
+        <v>0.09740354610171745</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03060820009685651</v>
+        <v>0.02585833548727537</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
@@ -1802,13 +1802,13 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1971689598.223653</v>
+        <v>1562458328.346894</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1371955061342548</v>
+        <v>0.1754701037186977</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03316027173897611</v>
+        <v>0.02723859346805472</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1824,19 +1824,19 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3603269369.651392</v>
+        <v>2771467936.144066</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1162105992232326</v>
+        <v>0.115288185701576</v>
       </c>
       <c r="G50" t="n">
-        <v>0.05170698192294086</v>
+        <v>0.0438127996431765</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1449795226.883451</v>
+        <v>1203218268.617094</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1227619570991922</v>
+        <v>0.1795624045095116</v>
       </c>
       <c r="G51" t="n">
-        <v>0.0471665132239321</v>
+        <v>0.04948301911156919</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1886,13 +1886,13 @@
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3591658991.710675</v>
+        <v>4498533982.637863</v>
       </c>
       <c r="F52" t="n">
-        <v>0.09072814420123258</v>
+        <v>0.1134228381249672</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04971159063178316</v>
+        <v>0.04718437579117425</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>2685810143.002641</v>
+        <v>3343373882.801664</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2047402363241398</v>
+        <v>0.1408266909044785</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02369505187901309</v>
+        <v>0.02378248083745091</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,22 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3009013956.515639</v>
+        <v>3651378939.808726</v>
       </c>
       <c r="F54" t="n">
-        <v>0.109553764061547</v>
+        <v>0.1665486967812155</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04844983599518259</v>
+        <v>0.04503774301954463</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>3376204119.158601</v>
+        <v>4096919332.191516</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1413396172480499</v>
+        <v>0.1373618696885134</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02344991510065341</v>
+        <v>0.0321395703148739</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1998,13 +1998,13 @@
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1645385912.557468</v>
+        <v>1560940835.689629</v>
       </c>
       <c r="F56" t="n">
-        <v>0.10867377662454</v>
+        <v>0.1264715246539653</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04688326553828882</v>
+        <v>0.05670141754229471</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2020,19 +2020,19 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4294528970.418801</v>
+        <v>3654566302.28935</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1687299145662399</v>
+        <v>0.1226760463910579</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02205278677833369</v>
+        <v>0.02711829599473279</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,22 +2048,22 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1161684120.689393</v>
+        <v>1473397740.720149</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1802042581723269</v>
+        <v>0.1303967696707592</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03385131402004189</v>
+        <v>0.0334234640300523</v>
       </c>
       <c r="H58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59">
@@ -2082,13 +2082,13 @@
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4343165788.321461</v>
+        <v>4983461858.736749</v>
       </c>
       <c r="F59" t="n">
-        <v>0.09490383932262092</v>
+        <v>0.1011954330900093</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03334427016060869</v>
+        <v>0.04670126979930264</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,19 +2104,19 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3669804680.849629</v>
+        <v>2289643062.24719</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1541791103780385</v>
+        <v>0.1687891336603784</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02978748190928617</v>
+        <v>0.02956710746398414</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>3006180074.266492</v>
+        <v>2137459000.721034</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1670380692923127</v>
+        <v>0.1507506623655033</v>
       </c>
       <c r="G61" t="n">
-        <v>0.02287026547403641</v>
+        <v>0.03146809337257803</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1435522278.120406</v>
+        <v>1703873436.44185</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1436624002927985</v>
+        <v>0.162602097807034</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04899878942344024</v>
+        <v>0.04544391955557429</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3601422828.442542</v>
+        <v>3819573759.525563</v>
       </c>
       <c r="F63" t="n">
-        <v>0.07031851820086035</v>
+        <v>0.1031587028744497</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03269864861652597</v>
+        <v>0.03194212546819957</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2216,19 +2216,19 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4550854380.327581</v>
+        <v>4430405352.339444</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1670691081990619</v>
+        <v>0.1193618949064571</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03318514116394163</v>
+        <v>0.03367939334955956</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3811899904.722788</v>
+        <v>4240045212.82475</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1216336898379016</v>
+        <v>0.1296734282900183</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03038576561871068</v>
+        <v>0.02015471621459874</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4906115184.769146</v>
+        <v>5067714773.373707</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1539781159240879</v>
+        <v>0.1263107148355202</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04257591153916745</v>
+        <v>0.03387093582819629</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2306,13 +2306,13 @@
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2176533463.768041</v>
+        <v>2811253195.766988</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09890087504906493</v>
+        <v>0.06670319191698289</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04906593790836868</v>
+        <v>0.04136117379221162</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4753643011.021714</v>
+        <v>4890201616.082197</v>
       </c>
       <c r="F68" t="n">
-        <v>0.157589934168908</v>
+        <v>0.1445972995327644</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0507939537538643</v>
+        <v>0.04742297489208568</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,19 +2356,19 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1578821733.277809</v>
+        <v>1962327455.86342</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1374403158175086</v>
+        <v>0.1506360894063314</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0366821531919252</v>
+        <v>0.0567130824752438</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3494939548.800491</v>
+        <v>3710172247.259727</v>
       </c>
       <c r="F70" t="n">
-        <v>0.1014321813219706</v>
+        <v>0.06714719542991157</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0448334371467771</v>
+        <v>0.04737964677182442</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4159751306.147065</v>
+        <v>5474728023.752934</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1832408202994794</v>
+        <v>0.1149282597011626</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0284703182206075</v>
+        <v>0.03202656848265832</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2070762102.157025</v>
+        <v>1952382052.699444</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08784729263721809</v>
+        <v>0.07610063341714741</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04132382784585795</v>
+        <v>0.04868134961466615</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2474,13 +2474,13 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2226489255.574617</v>
+        <v>3536154438.100406</v>
       </c>
       <c r="F73" t="n">
-        <v>0.06864943147493519</v>
+        <v>0.1024397798512963</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05055980220625459</v>
+        <v>0.05273649933209624</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,22 +2496,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3752532578.362127</v>
+        <v>3803418879.431316</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1809720458416947</v>
+        <v>0.1511506399644451</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03520483301595864</v>
+        <v>0.03112912957792987</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1967385872.131522</v>
+        <v>1572783630.307224</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1128589654446274</v>
+        <v>0.1464666805620148</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02492145891776609</v>
+        <v>0.02695346723682941</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3495648635.02948</v>
+        <v>4598096343.768399</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08886840543246016</v>
+        <v>0.07550151092124649</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03301947955921456</v>
+        <v>0.02710359996463997</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,19 +2580,19 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1647364575.271127</v>
+        <v>1504314976.882657</v>
       </c>
       <c r="F77" t="n">
-        <v>0.160639631809128</v>
+        <v>0.1640394914364627</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02470634251149859</v>
+        <v>0.02208574417586137</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3851522128.805088</v>
+        <v>4214108993.17147</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1142928949100444</v>
+        <v>0.09940919720859423</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0519880010272161</v>
+        <v>0.04905216743450153</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2642,13 +2642,13 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1283039758.290324</v>
+        <v>1285030210.918108</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1203686346311544</v>
+        <v>0.1580733614860875</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03494132317885902</v>
+        <v>0.02908981588596907</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4419734261.425598</v>
+        <v>5608366025.242433</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08694846171828355</v>
+        <v>0.08421582319103343</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02593397321000149</v>
+        <v>0.02385744918670986</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,22 +2692,22 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4633764332.626619</v>
+        <v>4160286939.728343</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1078113179393212</v>
+        <v>0.10168344469242</v>
       </c>
       <c r="G81" t="n">
-        <v>0.0249352493938074</v>
+        <v>0.02153325970842235</v>
       </c>
       <c r="H81" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4522327574.769217</v>
+        <v>3462334188.013309</v>
       </c>
       <c r="F82" t="n">
-        <v>0.175946960458145</v>
+        <v>0.1814742918201888</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02147680543713862</v>
+        <v>0.02624743213015557</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,19 +2748,19 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2272522067.229385</v>
+        <v>2036299943.02666</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1023255198017804</v>
+        <v>0.140336075478934</v>
       </c>
       <c r="G83" t="n">
-        <v>0.02738018031808589</v>
+        <v>0.03973514809603049</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
@@ -2782,13 +2782,13 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1958454017.025169</v>
+        <v>1926645248.972186</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09126147911549766</v>
+        <v>0.1070670081805264</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03686820489160889</v>
+        <v>0.03705419781174824</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2810,13 +2810,13 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3188414337.600155</v>
+        <v>3465680614.777214</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1220222360844852</v>
+        <v>0.1132568539061554</v>
       </c>
       <c r="G85" t="n">
-        <v>0.05135746326411983</v>
+        <v>0.04582516370727509</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2832,19 +2832,19 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2586291275.548357</v>
+        <v>1946982705.073801</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1511426264152738</v>
+        <v>0.1379532254080007</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01846370091582791</v>
+        <v>0.0245095635484114</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,16 +2866,16 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1304823361.352027</v>
+        <v>992057200.4988635</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1402020214445745</v>
+        <v>0.18710590192</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03029028531452787</v>
+        <v>0.04184348425733952</v>
       </c>
       <c r="H87" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3421222686.45125</v>
+        <v>2671045500.952415</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1631246397852036</v>
+        <v>0.1156869665442393</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03901910969518237</v>
+        <v>0.02720981811185511</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,22 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2503014323.794612</v>
+        <v>3195151788.503385</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1362705849977265</v>
+        <v>0.1534053096651958</v>
       </c>
       <c r="G89" t="n">
-        <v>0.0285513174348369</v>
+        <v>0.03871976541543919</v>
       </c>
       <c r="H89" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90">
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1719625521.423199</v>
+        <v>2052218628.397283</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1274172938522692</v>
+        <v>0.1110247941998231</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04816409608428302</v>
+        <v>0.04966576279547704</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1800011720.532743</v>
+        <v>1665224778.015218</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1726709676242545</v>
+        <v>0.184823723581226</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04516457660153826</v>
+        <v>0.06131307987895815</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3000,19 +3000,19 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2918770636.498697</v>
+        <v>2353182709.159219</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1082399197208103</v>
+        <v>0.07153612263555288</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03737014106985301</v>
+        <v>0.04725253973880911</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3034,16 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3938322093.660982</v>
+        <v>3189128682.29686</v>
       </c>
       <c r="F93" t="n">
-        <v>0.09215716770403831</v>
+        <v>0.1169329167197397</v>
       </c>
       <c r="G93" t="n">
-        <v>0.05114172118565059</v>
+        <v>0.03352264126127349</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2482334290.649932</v>
+        <v>1667276481.047658</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1284906954112184</v>
+        <v>0.1030866270266082</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02667667576072</v>
+        <v>0.02715330502194271</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2957040112.62144</v>
+        <v>2144867207.194396</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08905903000002559</v>
+        <v>0.1041722632571251</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0484078881064185</v>
+        <v>0.03653433222743935</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,19 +3112,19 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1864559040.62903</v>
+        <v>1828305903.707664</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1005205533263025</v>
+        <v>0.1276311837093588</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04697838750337093</v>
+        <v>0.04329628213082849</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4051990297.252463</v>
+        <v>3801650465.921953</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1438058824419761</v>
+        <v>0.1250441454388083</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02010641506745826</v>
+        <v>0.02858170876930731</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2879647944.610834</v>
+        <v>3407190614.970771</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1227925759844533</v>
+        <v>0.1148259272078233</v>
       </c>
       <c r="G98" t="n">
-        <v>0.030809604902281</v>
+        <v>0.02648369789162874</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,19 +3196,19 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3364070441.783031</v>
+        <v>2871440325.308966</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1052470464640592</v>
+        <v>0.1150987776019899</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03018078811732359</v>
+        <v>0.03268379877878057</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4152058525.545141</v>
+        <v>3141847392.288646</v>
       </c>
       <c r="F100" t="n">
-        <v>0.127590727909601</v>
+        <v>0.1162452581502035</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02044240286188206</v>
+        <v>0.01717754385734873</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,22 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2888149162.216574</v>
+        <v>2250965232.153049</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1710263442495155</v>
+        <v>0.1928555904328206</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05850076284161561</v>
+        <v>0.05533460089004427</v>
       </c>
       <c r="H101" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_442.xlsx
+++ b/output/fit_clients/fit_round_442.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -480,23 +495,30 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1810168594.597997</v>
+        <v>1983078723.777217</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07965848054695431</v>
+        <v>0.08654882445663621</v>
       </c>
       <c r="G2" t="n">
-        <v>0.02958585663949819</v>
+        <v>0.03341550083701644</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2526873790.154228</v>
+        <v>2180711324.517448</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1713695315465951</v>
+        <v>0.125288216839985</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03257488685482003</v>
+        <v>0.04417516799212792</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4449543713.210291</v>
+        <v>4796707615.816211</v>
       </c>
       <c r="F4" t="n">
-        <v>0.141618608672777</v>
+        <v>0.113940712894523</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03640450510982056</v>
+        <v>0.02644110603304884</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>224</v>
+      </c>
+      <c r="J4" t="n">
+        <v>441</v>
+      </c>
+      <c r="K4" t="n">
+        <v>35.27492541055143</v>
       </c>
     </row>
     <row r="5">
@@ -564,23 +602,30 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3018256601.23386</v>
+        <v>3002666484.05375</v>
       </c>
       <c r="F5" t="n">
-        <v>0.08465767034266028</v>
+        <v>0.08183634417640158</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04293628794315012</v>
+        <v>0.04907614945071598</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
       </c>
+      <c r="I5" t="n">
+        <v>184</v>
+      </c>
+      <c r="J5" t="n">
+        <v>440</v>
+      </c>
+      <c r="K5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -592,23 +637,30 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2291716251.957829</v>
+        <v>2837294646.754578</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1035833803328281</v>
+        <v>0.09564122385391011</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04068467669503255</v>
+        <v>0.04482254803689559</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +672,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2350030050.542126</v>
+        <v>2294850279.648026</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06771719192098098</v>
+        <v>0.09345837149646233</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03747514169869719</v>
+        <v>0.04500761278387882</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +707,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3566064868.592127</v>
+        <v>3760554509.96749</v>
       </c>
       <c r="F8" t="n">
-        <v>0.1598362225504861</v>
+        <v>0.1558360631815993</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02887132122567344</v>
+        <v>0.02923647251999601</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>120</v>
+      </c>
+      <c r="J8" t="n">
+        <v>442</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +742,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1862686757.875624</v>
+        <v>2254676706.798231</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1835117366639967</v>
+        <v>0.1682787462612979</v>
       </c>
       <c r="G9" t="n">
-        <v>0.02338688996300601</v>
+        <v>0.02926363482233874</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +777,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4767654763.993394</v>
+        <v>5160516835.652506</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1659498174018702</v>
+        <v>0.1528461344036364</v>
       </c>
       <c r="G10" t="n">
-        <v>0.05018897478763719</v>
+        <v>0.0462713660637827</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>346</v>
+      </c>
+      <c r="J10" t="n">
+        <v>441</v>
+      </c>
+      <c r="K10" t="n">
+        <v>36.701375086631</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +814,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3029337592.493175</v>
+        <v>3707703493.396315</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1240333771102855</v>
+        <v>0.1239466985358763</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03938654591296568</v>
+        <v>0.04740466552861865</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>184</v>
+      </c>
+      <c r="J11" t="n">
+        <v>441</v>
+      </c>
+      <c r="K11" t="n">
+        <v>31.27795295258562</v>
       </c>
     </row>
     <row r="12">
@@ -766,17 +857,24 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2994569734.697887</v>
+        <v>3010423875.968362</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1805069968012026</v>
+        <v>0.1781885709780866</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04373741549983803</v>
+        <v>0.04307040142680599</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>3</v>
+      </c>
+      <c r="J12" t="n">
+        <v>308</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -794,17 +892,24 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>4387577286.904985</v>
+        <v>3981397513.868613</v>
       </c>
       <c r="F13" t="n">
-        <v>0.07586513880424701</v>
+        <v>0.08198242917656311</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0245332491284058</v>
+        <v>0.02036524560570291</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>229</v>
+      </c>
+      <c r="J13" t="n">
+        <v>442</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +921,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3465581439.630077</v>
+        <v>2984009863.177376</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1228399596005466</v>
+        <v>0.1464287040847086</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02931225840046116</v>
+        <v>0.02669383663941659</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>96</v>
+      </c>
+      <c r="J14" t="n">
+        <v>439</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -844,23 +956,30 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1790527270.735437</v>
+        <v>1113903210.0139</v>
       </c>
       <c r="F15" t="n">
-        <v>0.06960205174732434</v>
+        <v>0.09997345811700017</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03398728485466689</v>
+        <v>0.03025595973148917</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -872,23 +991,30 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2344654741.30184</v>
+        <v>2033820191.199598</v>
       </c>
       <c r="F16" t="n">
-        <v>0.0797615756731781</v>
+        <v>0.1140262377119436</v>
       </c>
       <c r="G16" t="n">
-        <v>0.05079699482417652</v>
+        <v>0.04226610307167467</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,22 +1026,31 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3973762000.585599</v>
+        <v>4417666388.403588</v>
       </c>
       <c r="F17" t="n">
-        <v>0.174804062126697</v>
+        <v>0.1697244247915771</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04926940017736506</v>
+        <v>0.04274715249393141</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>215</v>
+      </c>
+      <c r="J17" t="n">
+        <v>441</v>
+      </c>
+      <c r="K17" t="n">
+        <v>36.4885639243417</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3832301278.760329</v>
+        <v>3510960592.056889</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1125890252527603</v>
+        <v>0.1431739355821786</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0343833978840348</v>
+        <v>0.03448962822277726</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>115</v>
+      </c>
+      <c r="J18" t="n">
+        <v>441</v>
+      </c>
+      <c r="K18" t="n">
+        <v>33.46540301158018</v>
       </c>
     </row>
     <row r="19">
@@ -962,17 +1106,24 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1014465270.52441</v>
+        <v>1052138845.86289</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1333783622718215</v>
+        <v>0.1283702880790275</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01699543650795953</v>
+        <v>0.01815795750722836</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2710078124.810151</v>
+        <v>1955394210.50483</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1438945815555691</v>
+        <v>0.1467799550799474</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02822712001976228</v>
+        <v>0.02071935793497614</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1018,17 +1176,24 @@
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1769510719.517603</v>
+        <v>1675424347.278827</v>
       </c>
       <c r="F21" t="n">
-        <v>0.06890842962314508</v>
+        <v>0.1017526725144296</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03311487577097872</v>
+        <v>0.04334413693635669</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1046,17 +1211,24 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>2663753027.305209</v>
+        <v>2552193885.598691</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1097314614984694</v>
+        <v>0.138643372500787</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05648712361102312</v>
+        <v>0.0425021098090782</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
       </c>
+      <c r="I22" t="n">
+        <v>130</v>
+      </c>
+      <c r="J22" t="n">
+        <v>439</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1074,17 +1246,24 @@
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1242458806.102761</v>
+        <v>1278017205.445442</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1804843624873033</v>
+        <v>0.1194747161957772</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04978732821917289</v>
+        <v>0.04490531816227716</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>2812279364.387692</v>
+        <v>3731474138.917936</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1363978684036934</v>
+        <v>0.09359124918475163</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03258612054844853</v>
+        <v>0.0372632897872569</v>
       </c>
       <c r="H24" t="b">
         <v>1</v>
       </c>
+      <c r="I24" t="n">
+        <v>139</v>
+      </c>
+      <c r="J24" t="n">
+        <v>442</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1124,23 +1310,30 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1165426640.924877</v>
+        <v>1378593026.121444</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1020846736808388</v>
+        <v>0.07603969049575478</v>
       </c>
       <c r="G25" t="n">
-        <v>0.01915215641941383</v>
+        <v>0.02057511049054429</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1158,17 +1351,24 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1421490725.432958</v>
+        <v>1434009750.125082</v>
       </c>
       <c r="F26" t="n">
-        <v>0.09558273893019723</v>
+        <v>0.1183946684672903</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03172785883760133</v>
+        <v>0.03518333519150161</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1180,22 +1380,31 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3572822789.854214</v>
+        <v>3928596687.541681</v>
       </c>
       <c r="F27" t="n">
-        <v>0.141559505857456</v>
+        <v>0.1160055136903002</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02298651992021273</v>
+        <v>0.02226898541831935</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>192</v>
+      </c>
+      <c r="J27" t="n">
+        <v>441</v>
+      </c>
+      <c r="K27" t="n">
+        <v>31.38218928153336</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2848034286.472218</v>
+        <v>2788669974.49304</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1180134750891382</v>
+        <v>0.1032207989987119</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03781877952165241</v>
+        <v>0.03954357388532211</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>108</v>
+      </c>
+      <c r="J28" t="n">
+        <v>437</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4945940442.323769</v>
+        <v>5525615365.768101</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1088636527624339</v>
+        <v>0.09466425111728127</v>
       </c>
       <c r="G29" t="n">
-        <v>0.02986652278046377</v>
+        <v>0.03244387127448796</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I29" t="n">
+        <v>362</v>
+      </c>
+      <c r="J29" t="n">
+        <v>441</v>
+      </c>
+      <c r="K29" t="n">
+        <v>36.19827539783437</v>
       </c>
     </row>
     <row r="30">
@@ -1270,17 +1495,24 @@
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1792340861.742968</v>
+        <v>2259892577.627172</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1081622389602963</v>
+        <v>0.1332690043663879</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02780933726321572</v>
+        <v>0.04030175829861951</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1089308492.962346</v>
+        <v>1488321656.437773</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08984050884263022</v>
+        <v>0.1051071685105132</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03806134554679944</v>
+        <v>0.03269187187425594</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1746601891.065447</v>
+        <v>1230358270.908074</v>
       </c>
       <c r="F32" t="n">
-        <v>0.1021155089743042</v>
+        <v>0.1181231937912691</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02461996781975781</v>
+        <v>0.02927547232100603</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1354,17 +1600,24 @@
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2981767740.957881</v>
+        <v>1912033590.660299</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1784630483074962</v>
+        <v>0.1972207747822926</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03688635959703739</v>
+        <v>0.05106052818652239</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1526075659.134542</v>
+        <v>1072292754.034081</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1027578141439143</v>
+        <v>0.1067882185391665</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02725311153626725</v>
+        <v>0.0173123377798525</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1041452627.229307</v>
+        <v>1176824376.587834</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1053807216130234</v>
+        <v>0.1142085871500643</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03186859254442875</v>
+        <v>0.03802672724111394</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3224835400.640965</v>
+        <v>2921090740.299267</v>
       </c>
       <c r="F36" t="n">
-        <v>0.168303549864991</v>
+        <v>0.1531037647013785</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01916649059534245</v>
+        <v>0.01797827421808314</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>1906483253.617874</v>
+        <v>1907664045.802857</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1068650066146288</v>
+        <v>0.07353282874999395</v>
       </c>
       <c r="G37" t="n">
-        <v>0.02623613459493486</v>
+        <v>0.03414736650791488</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1550364665.670754</v>
+        <v>1658272381.46174</v>
       </c>
       <c r="F38" t="n">
-        <v>0.08854573734758657</v>
+        <v>0.08647029591572744</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03149246924170591</v>
+        <v>0.03329331388815515</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1516,23 +1804,30 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1504672012.897317</v>
+        <v>1899898413.983562</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1704029381342829</v>
+        <v>0.1474453336735128</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02033302503540691</v>
+        <v>0.02415380780965526</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1544,23 +1839,30 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1300076600.900357</v>
+        <v>1413351611.530194</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1603940492882787</v>
+        <v>0.1376218337634539</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05257698979652616</v>
+        <v>0.05332337772972313</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2594989937.043005</v>
+        <v>2303010729.711848</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1578937782048804</v>
+        <v>0.1598147424479562</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03153213093601426</v>
+        <v>0.03371131798196184</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1606,17 +1915,24 @@
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3130115649.598289</v>
+        <v>3819731823.697488</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1038793128171544</v>
+        <v>0.0976285775043762</v>
       </c>
       <c r="G42" t="n">
-        <v>0.03611525740155739</v>
+        <v>0.02995369952205211</v>
       </c>
       <c r="H42" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I42" t="n">
+        <v>191</v>
+      </c>
+      <c r="J42" t="n">
+        <v>442</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2868507233.208527</v>
+        <v>2050881717.040961</v>
       </c>
       <c r="F43" t="n">
-        <v>0.160910313035208</v>
+        <v>0.1237193392774463</v>
       </c>
       <c r="G43" t="n">
-        <v>0.02334625358809536</v>
+        <v>0.02377092600063203</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1662,17 +1985,24 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1440541245.566313</v>
+        <v>2178225908.338419</v>
       </c>
       <c r="F44" t="n">
-        <v>0.07158307291740132</v>
+        <v>0.0788080840885141</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0262032491223202</v>
+        <v>0.03172240293869102</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1690,17 +2020,24 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2523427089.488587</v>
+        <v>2060601188.727199</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1420799250539025</v>
+        <v>0.1764876563093421</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05352767422901285</v>
+        <v>0.03729993345107137</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1718,16 +2055,25 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4583998014.574155</v>
+        <v>5038046790.99693</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1645008394978584</v>
+        <v>0.1155923682646142</v>
       </c>
       <c r="G46" t="n">
-        <v>0.05785409410967041</v>
+        <v>0.05203212688873971</v>
       </c>
       <c r="H46" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I46" t="n">
+        <v>263</v>
+      </c>
+      <c r="J46" t="n">
+        <v>441</v>
+      </c>
+      <c r="K46" t="n">
+        <v>36.23234905686312</v>
       </c>
     </row>
     <row r="47">
@@ -1740,23 +2086,30 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3595830976.072058</v>
+        <v>4053093625.704712</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1287290757838911</v>
+        <v>0.1805032739420266</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03935683921410879</v>
+        <v>0.04723193894154238</v>
       </c>
       <c r="H47" t="b">
         <v>1</v>
       </c>
+      <c r="I47" t="n">
+        <v>198</v>
+      </c>
+      <c r="J47" t="n">
+        <v>442</v>
+      </c>
+      <c r="K47" t="inlineStr"/>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>3976940914.652232</v>
+        <v>4627806002.68519</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09740354610171745</v>
+        <v>0.09032529295395476</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02585833548727537</v>
+        <v>0.03023451172280663</v>
       </c>
       <c r="H48" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I48" t="n">
+        <v>222</v>
+      </c>
+      <c r="J48" t="n">
+        <v>442</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1802,17 +2162,24 @@
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1562458328.346894</v>
+        <v>1745237933.201806</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1754701037186977</v>
+        <v>0.1580550772645561</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02723859346805472</v>
+        <v>0.03970996215437835</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1824,22 +2191,31 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D50" t="n">
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>2771467936.144066</v>
+        <v>4182665085.089813</v>
       </c>
       <c r="F50" t="n">
-        <v>0.115288185701576</v>
+        <v>0.1342375296494744</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0438127996431765</v>
+        <v>0.0512260774837943</v>
       </c>
       <c r="H50" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I50" t="n">
+        <v>156</v>
+      </c>
+      <c r="J50" t="n">
+        <v>442</v>
+      </c>
+      <c r="K50" t="n">
+        <v>41.20693619475206</v>
       </c>
     </row>
     <row r="51">
@@ -1852,23 +2228,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1203218268.617094</v>
+        <v>941982640.1219169</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1795624045095116</v>
+        <v>0.1780377947733266</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04948301911156919</v>
+        <v>0.04036854433784188</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2263,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>4498533982.637863</v>
+        <v>3678598854.292631</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1134228381249672</v>
+        <v>0.09202533048057358</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04718437579117425</v>
+        <v>0.04354500837856868</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>252</v>
+      </c>
+      <c r="J52" t="n">
+        <v>442</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1914,17 +2304,24 @@
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3343373882.801664</v>
+        <v>2584662098.232725</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1408266909044785</v>
+        <v>0.1981750199064383</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02378248083745091</v>
+        <v>0.0283015226552898</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>67</v>
+      </c>
+      <c r="J53" t="n">
+        <v>439</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1942,16 +2339,25 @@
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>3651378939.808726</v>
+        <v>4869874202.137796</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1665486967812155</v>
+        <v>0.1541415708025384</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04503774301954463</v>
+        <v>0.03960142150194696</v>
       </c>
       <c r="H54" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I54" t="n">
+        <v>234</v>
+      </c>
+      <c r="J54" t="n">
+        <v>441</v>
+      </c>
+      <c r="K54" t="n">
+        <v>36.41198318826858</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2370,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4096919332.191516</v>
+        <v>3716414542.474348</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1373618696885134</v>
+        <v>0.1952361744537568</v>
       </c>
       <c r="G55" t="n">
-        <v>0.0321395703148739</v>
+        <v>0.02997739813415062</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>219</v>
+      </c>
+      <c r="J55" t="n">
+        <v>442</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2405,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1560940835.689629</v>
+        <v>1602216750.551768</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1264715246539653</v>
+        <v>0.1577485796155086</v>
       </c>
       <c r="G56" t="n">
-        <v>0.05670141754229471</v>
+        <v>0.04175840240176634</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2020,22 +2440,31 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D57" t="n">
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3654566302.28935</v>
+        <v>2987476563.673037</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1226760463910579</v>
+        <v>0.1176139514923684</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02711829599473279</v>
+        <v>0.0181426912514754</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
+      </c>
+      <c r="I57" t="n">
+        <v>192</v>
+      </c>
+      <c r="J57" t="n">
+        <v>441</v>
+      </c>
+      <c r="K57" t="n">
+        <v>17.87082172898186</v>
       </c>
     </row>
     <row r="58">
@@ -2048,23 +2477,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1473397740.720149</v>
+        <v>1260659829.585561</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1303967696707592</v>
+        <v>0.1413590761704944</v>
       </c>
       <c r="G58" t="n">
-        <v>0.0334234640300523</v>
+        <v>0.03305973960399162</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2512,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4983461858.736749</v>
+        <v>3769174682.008707</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1011954330900093</v>
+        <v>0.1269443051922438</v>
       </c>
       <c r="G59" t="n">
-        <v>0.04670126979930264</v>
+        <v>0.03938357426400067</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>216</v>
+      </c>
+      <c r="J59" t="n">
+        <v>441</v>
+      </c>
+      <c r="K59" t="n">
+        <v>28.72462620896287</v>
       </c>
     </row>
     <row r="60">
@@ -2110,17 +2555,24 @@
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2289643062.24719</v>
+        <v>2989420261.262472</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1687891336603784</v>
+        <v>0.1243814332621271</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02956710746398414</v>
+        <v>0.02796053628254467</v>
       </c>
       <c r="H60" t="b">
         <v>0</v>
       </c>
+      <c r="I60" t="n">
+        <v>86</v>
+      </c>
+      <c r="J60" t="n">
+        <v>437</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2584,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2137459000.721034</v>
+        <v>3286339990.406862</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1507506623655033</v>
+        <v>0.1549742904974098</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03146809337257803</v>
+        <v>0.02185021963233416</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>14</v>
+      </c>
+      <c r="J61" t="n">
+        <v>412</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2166,17 +2625,24 @@
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1703873436.44185</v>
+        <v>1979373401.426083</v>
       </c>
       <c r="F62" t="n">
-        <v>0.162602097807034</v>
+        <v>0.1800698317979743</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04544391955557429</v>
+        <v>0.0432016202287276</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,23 +2654,30 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3819573759.525563</v>
+        <v>5041356302.041429</v>
       </c>
       <c r="F63" t="n">
-        <v>0.1031587028744497</v>
+        <v>0.07751189523662491</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03194212546819957</v>
+        <v>0.04358587964540057</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
       </c>
+      <c r="I63" t="n">
+        <v>220</v>
+      </c>
+      <c r="J63" t="n">
+        <v>442</v>
+      </c>
+      <c r="K63" t="inlineStr"/>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
@@ -2222,17 +2695,24 @@
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4430405352.339444</v>
+        <v>3899001228.849624</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1193618949064571</v>
+        <v>0.1647889754013959</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03367939334955956</v>
+        <v>0.0292540837781034</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>221</v>
+      </c>
+      <c r="J64" t="n">
+        <v>442</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,17 +2730,24 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4240045212.82475</v>
+        <v>4453589226.821202</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1296734282900183</v>
+        <v>0.1078180030000101</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02015471621459874</v>
+        <v>0.03183429036452504</v>
       </c>
       <c r="H65" t="b">
         <v>1</v>
       </c>
+      <c r="I65" t="n">
+        <v>318</v>
+      </c>
+      <c r="J65" t="n">
+        <v>442</v>
+      </c>
+      <c r="K65" t="inlineStr"/>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
@@ -2278,16 +2765,25 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5067714773.373707</v>
+        <v>4377015274.388491</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1263107148355202</v>
+        <v>0.1049544366211874</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03387093582819629</v>
+        <v>0.03188620910645618</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I66" t="n">
+        <v>218</v>
+      </c>
+      <c r="J66" t="n">
+        <v>441</v>
+      </c>
+      <c r="K66" t="n">
+        <v>36.36134110769122</v>
       </c>
     </row>
     <row r="67">
@@ -2300,23 +2796,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2811253195.766988</v>
+        <v>2743298273.906389</v>
       </c>
       <c r="F67" t="n">
-        <v>0.06670319191698289</v>
+        <v>0.09654440703925443</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04136117379221162</v>
+        <v>0.0358781922855193</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>11</v>
+      </c>
+      <c r="J67" t="n">
+        <v>389</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2831,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>4890201616.082197</v>
+        <v>5491436863.999711</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1445972995327644</v>
+        <v>0.131133519969405</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04742297489208568</v>
+        <v>0.03829315923086603</v>
       </c>
       <c r="H68" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I68" t="n">
+        <v>241</v>
+      </c>
+      <c r="J68" t="n">
+        <v>441</v>
+      </c>
+      <c r="K68" t="n">
+        <v>35.57212697788901</v>
       </c>
     </row>
     <row r="69">
@@ -2356,23 +2868,30 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1962327455.86342</v>
+        <v>1965699446.750921</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1506360894063314</v>
+        <v>0.1595167031203303</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0567130824752438</v>
+        <v>0.05209490043775424</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2903,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3710172247.259727</v>
+        <v>3284747573.838191</v>
       </c>
       <c r="F70" t="n">
-        <v>0.06714719542991157</v>
+        <v>0.07286038260863618</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04737964677182442</v>
+        <v>0.04771450633021358</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
       </c>
+      <c r="I70" t="n">
+        <v>63</v>
+      </c>
+      <c r="J70" t="n">
+        <v>435</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,23 +2938,30 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>5474728023.752934</v>
+        <v>5115888551.941632</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1149282597011626</v>
+        <v>0.1541311031588312</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03202656848265832</v>
+        <v>0.0248987687178913</v>
       </c>
       <c r="H71" t="b">
         <v>1</v>
       </c>
+      <c r="I71" t="n">
+        <v>304</v>
+      </c>
+      <c r="J71" t="n">
+        <v>442</v>
+      </c>
+      <c r="K71" t="inlineStr"/>
     </row>
     <row r="72">
       <c r="A72" s="1" t="n">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1952382052.699444</v>
+        <v>2179310265.590741</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07610063341714741</v>
+        <v>0.08485555698516303</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04868134961466615</v>
+        <v>0.03649525954177824</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2474,16 +3014,25 @@
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>3536154438.100406</v>
+        <v>3530893016.730067</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1024397798512963</v>
+        <v>0.08937146029357672</v>
       </c>
       <c r="G73" t="n">
-        <v>0.05273649933209624</v>
+        <v>0.03531960890389634</v>
       </c>
       <c r="H73" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I73" t="n">
+        <v>34</v>
+      </c>
+      <c r="J73" t="n">
+        <v>442</v>
+      </c>
+      <c r="K73" t="n">
+        <v>55.2773268914751</v>
       </c>
     </row>
     <row r="74">
@@ -2502,17 +3051,24 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3803418879.431316</v>
+        <v>2883318556.538271</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1511506399644451</v>
+        <v>0.1669005022554096</v>
       </c>
       <c r="G74" t="n">
-        <v>0.03112912957792987</v>
+        <v>0.02325588176303121</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
       </c>
+      <c r="I74" t="n">
+        <v>127</v>
+      </c>
+      <c r="J74" t="n">
+        <v>432</v>
+      </c>
+      <c r="K74" t="inlineStr"/>
     </row>
     <row r="75">
       <c r="A75" s="1" t="n">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1572783630.307224</v>
+        <v>1777255137.029755</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1464666805620148</v>
+        <v>0.1136104073455089</v>
       </c>
       <c r="G75" t="n">
-        <v>0.02695346723682941</v>
+        <v>0.03037692917470886</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>4598096343.768399</v>
+        <v>4334755630.570772</v>
       </c>
       <c r="F76" t="n">
-        <v>0.07550151092124649</v>
+        <v>0.09682794668228208</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02710359996463997</v>
+        <v>0.02447472603252484</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>211</v>
+      </c>
+      <c r="J76" t="n">
+        <v>441</v>
+      </c>
+      <c r="K76" t="n">
+        <v>36.31550984070497</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1504314976.882657</v>
+        <v>2229341727.177126</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1640394914364627</v>
+        <v>0.1818742347838969</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02208574417586137</v>
+        <v>0.02727446940241297</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4214108993.17147</v>
+        <v>4451665445.84253</v>
       </c>
       <c r="F78" t="n">
-        <v>0.09940919720859423</v>
+        <v>0.09832177927590396</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04905216743450153</v>
+        <v>0.03909560500764695</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>221</v>
+      </c>
+      <c r="J78" t="n">
+        <v>442</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1285030210.918108</v>
+        <v>1802724343.189641</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1580733614860875</v>
+        <v>0.1317644866174048</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02908981588596907</v>
+        <v>0.03649500338401407</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2670,17 +3263,24 @@
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5608366025.242433</v>
+        <v>5619980192.66319</v>
       </c>
       <c r="F80" t="n">
-        <v>0.08421582319103343</v>
+        <v>0.08796588203614213</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02385744918670986</v>
+        <v>0.03538068597108154</v>
       </c>
       <c r="H80" t="b">
         <v>1</v>
       </c>
+      <c r="I80" t="n">
+        <v>215</v>
+      </c>
+      <c r="J80" t="n">
+        <v>442</v>
+      </c>
+      <c r="K80" t="inlineStr"/>
     </row>
     <row r="81">
       <c r="A81" s="1" t="n">
@@ -2692,22 +3292,31 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4160286939.728343</v>
+        <v>4838253508.252285</v>
       </c>
       <c r="F81" t="n">
-        <v>0.10168344469242</v>
+        <v>0.1209957363689157</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02153325970842235</v>
+        <v>0.02243520949184672</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>205</v>
+      </c>
+      <c r="J81" t="n">
+        <v>442</v>
+      </c>
+      <c r="K81" t="n">
+        <v>38.3800235993532</v>
       </c>
     </row>
     <row r="82">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>3462334188.013309</v>
+        <v>3716496169.821876</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1814742918201888</v>
+        <v>0.1563953584897581</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02624743213015557</v>
+        <v>0.02146143755982407</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>296</v>
+      </c>
+      <c r="J82" t="n">
+        <v>442</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2036299943.02666</v>
+        <v>2192270294.15544</v>
       </c>
       <c r="F83" t="n">
-        <v>0.140336075478934</v>
+        <v>0.1487709235433619</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03973514809603049</v>
+        <v>0.03506762548751854</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2782,17 +3405,24 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1926645248.972186</v>
+        <v>1784841719.396456</v>
       </c>
       <c r="F84" t="n">
-        <v>0.1070670081805264</v>
+        <v>0.1138758284327533</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03705419781174824</v>
+        <v>0.04551428289546296</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3465680614.777214</v>
+        <v>2421402909.754991</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1132568539061554</v>
+        <v>0.1326307012945805</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04582516370727509</v>
+        <v>0.04544940071250776</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>58</v>
+      </c>
+      <c r="J85" t="n">
+        <v>438</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2838,17 +3475,24 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1946982705.073801</v>
+        <v>1816426837.814662</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1379532254080007</v>
+        <v>0.1344426043074202</v>
       </c>
       <c r="G86" t="n">
-        <v>0.0245095635484114</v>
+        <v>0.01881048900403166</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>992057200.4988635</v>
+        <v>1209897616.227832</v>
       </c>
       <c r="F87" t="n">
-        <v>0.18710590192</v>
+        <v>0.1702775128405985</v>
       </c>
       <c r="G87" t="n">
-        <v>0.04184348425733952</v>
+        <v>0.03835681924504159</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2888,23 +3539,30 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2671045500.952415</v>
+        <v>2407766565.608459</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1156869665442393</v>
+        <v>0.1109383232802226</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02720981811185511</v>
+        <v>0.03345117683449202</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>58</v>
+      </c>
+      <c r="J88" t="n">
+        <v>430</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2922,17 +3580,24 @@
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3195151788.503385</v>
+        <v>2598264859.16711</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1534053096651958</v>
+        <v>0.1507954646760236</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03871976541543919</v>
+        <v>0.04165703026829004</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>26</v>
+      </c>
+      <c r="J89" t="n">
+        <v>333</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2950,17 +3615,24 @@
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>2052218628.397283</v>
+        <v>2160021165.670742</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1110247941998231</v>
+        <v>0.1021621205069588</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04966576279547704</v>
+        <v>0.04122435660744744</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1665224778.015218</v>
+        <v>1534567198.346735</v>
       </c>
       <c r="F91" t="n">
-        <v>0.184823723581226</v>
+        <v>0.1961695466199738</v>
       </c>
       <c r="G91" t="n">
-        <v>0.06131307987895815</v>
+        <v>0.04723355820538561</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2353182709.159219</v>
+        <v>1861181901.23588</v>
       </c>
       <c r="F92" t="n">
-        <v>0.07153612263555288</v>
+        <v>0.07984326731930955</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04725253973880911</v>
+        <v>0.03034359707617667</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,22 +3714,31 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3189128682.29686</v>
+        <v>4878059644.472655</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1169329167197397</v>
+        <v>0.1119359540737704</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03352264126127349</v>
+        <v>0.04665609953137172</v>
       </c>
       <c r="H93" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I93" t="n">
+        <v>212</v>
+      </c>
+      <c r="J93" t="n">
+        <v>441</v>
+      </c>
+      <c r="K93" t="n">
+        <v>37.82292456937973</v>
       </c>
     </row>
     <row r="94">
@@ -3056,23 +3751,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1667276481.047658</v>
+        <v>1892092033.32717</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1030866270266082</v>
+        <v>0.1408814247301807</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02715330502194271</v>
+        <v>0.02970452933943017</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3090,17 +3792,24 @@
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2144867207.194396</v>
+        <v>2329197297.415996</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1041722632571251</v>
+        <v>0.09779800544898672</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03653433222743935</v>
+        <v>0.03307496396412371</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3821,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1828305903.707664</v>
+        <v>2309384502.468354</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1276311837093588</v>
+        <v>0.1255690119618506</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04329628213082849</v>
+        <v>0.03543146785178677</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3146,16 +3862,25 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3801650465.921953</v>
+        <v>4948635199.367242</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1250441454388083</v>
+        <v>0.1300708348725196</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02858170876930731</v>
+        <v>0.02490042582892749</v>
       </c>
       <c r="H97" t="b">
         <v>1</v>
+      </c>
+      <c r="I97" t="n">
+        <v>231</v>
+      </c>
+      <c r="J97" t="n">
+        <v>442</v>
+      </c>
+      <c r="K97" t="n">
+        <v>41.49671528933766</v>
       </c>
     </row>
     <row r="98">
@@ -3168,23 +3893,30 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3407190614.970771</v>
+        <v>2758810828.878756</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1148259272078233</v>
+        <v>0.0799853118691615</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02648369789162874</v>
+        <v>0.03251358971038421</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
       </c>
+      <c r="I98" t="n">
+        <v>112</v>
+      </c>
+      <c r="J98" t="n">
+        <v>436</v>
+      </c>
+      <c r="K98" t="inlineStr"/>
     </row>
     <row r="99">
       <c r="A99" s="1" t="n">
@@ -3196,23 +3928,30 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2871440325.308966</v>
+        <v>2079715040.8795</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1150987776019899</v>
+        <v>0.1372997314220306</v>
       </c>
       <c r="G99" t="n">
-        <v>0.03268379877878057</v>
+        <v>0.02658457109613359</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>9</v>
+      </c>
+      <c r="J99" t="n">
+        <v>386</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,23 +3963,30 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3141847392.288646</v>
+        <v>3338173302.164955</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1162452581502035</v>
+        <v>0.135050975676657</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01717754385734873</v>
+        <v>0.01937321666685369</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
       </c>
+      <c r="I100" t="n">
+        <v>205</v>
+      </c>
+      <c r="J100" t="n">
+        <v>440</v>
+      </c>
+      <c r="K100" t="inlineStr"/>
     </row>
     <row r="101">
       <c r="A101" s="1" t="n">
@@ -3252,22 +3998,31 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2250965232.153049</v>
+        <v>3214197345.577826</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1928555904328206</v>
+        <v>0.2196394381258452</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05533460089004427</v>
+        <v>0.05686082209896521</v>
       </c>
       <c r="H101" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I101" t="n">
+        <v>42</v>
+      </c>
+      <c r="J101" t="n">
+        <v>442</v>
+      </c>
+      <c r="K101" t="n">
+        <v>42.35074249682354</v>
       </c>
     </row>
   </sheetData>
